--- a/pred_ohlcv/54_21/2020-01-12 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BTT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>14733993.8485</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>14809061.5193</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>14809061.5193</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>14795832.167</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -756,7 +756,7 @@
         <v>14636287.146</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>14639287.146</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>14609970.2301</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>13713793.5751</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>13646977.3028</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>16269753.3954</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2863262.646217726</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2719243.106217726</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>355756.6967177261</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>444330.6560177261</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>351457.5143177261</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>874386.522417726</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-13649219.62568227</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-14193649.38908227</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-14171708.06138227</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>10757716.08068719</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>10772368.65188719</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>10772368.65188719</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>10600225.65188719</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>10600225.65188719</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>10530906.03928719</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>10284573.82208719</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2547506.908312808</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-9104447.517912809</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-12806254.82961281</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BTT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>14733993.8485</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>14809061.5193</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>14809061.5193</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>14795832.167</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -756,7 +756,7 @@
         <v>14636287.146</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>14609970.2301</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>13713793.5751</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>13646977.3028</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>16269753.3954</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2863262.646217726</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2719243.106217726</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>355756.6967177261</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>444330.6560177261</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>351457.5143177261</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>874386.522417726</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-13649219.62568227</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-14193649.38908227</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-14171708.06138227</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-14171708.06138227</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>21452923.95728719</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>10757716.08068719</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>10772368.65188719</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>10772368.65188719</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>10600225.65188719</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>10600225.65188719</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>10530906.03928719</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>10284573.82208719</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-12806254.82961281</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
